--- a/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -216,6 +216,177 @@
   </si>
   <si>
     <t>I08过去1个月内，你身体的以下部位出现过持续酸痛？（可多选）</t>
+  </si>
+  <si>
+    <t>{.id1}</t>
+  </si>
+  <si>
+    <t>{.province}</t>
+  </si>
+  <si>
+    <t>{.city}</t>
+  </si>
+  <si>
+    <t>{.district}</t>
+  </si>
+  <si>
+    <t>{.county}</t>
+  </si>
+  <si>
+    <t>{.point}</t>
+  </si>
+  <si>
+    <t>{.date}</t>
+  </si>
+  <si>
+    <t>{.a01}</t>
+  </si>
+  <si>
+    <t>{.a011}</t>
+  </si>
+  <si>
+    <t>{.a02}</t>
+  </si>
+  <si>
+    <t>{.a04}</t>
+  </si>
+  <si>
+    <t>{.a05}</t>
+  </si>
+  <si>
+    <t>{.h401b}</t>
+  </si>
+  <si>
+    <t>{.h401c}</t>
+  </si>
+  <si>
+    <t>{.h401d}</t>
+  </si>
+  <si>
+    <t>{.h01b}</t>
+  </si>
+  <si>
+    <t>{.h02a}</t>
+  </si>
+  <si>
+    <t>{.h402b}</t>
+  </si>
+  <si>
+    <t>{.h402c}</t>
+  </si>
+  <si>
+    <t>{.h402d1}</t>
+  </si>
+  <si>
+    <t>{.c09}</t>
+  </si>
+  <si>
+    <t>{.c10}</t>
+  </si>
+  <si>
+    <t>{.h403a}</t>
+  </si>
+  <si>
+    <t>{.h403b}</t>
+  </si>
+  <si>
+    <t>{.h403c}</t>
+  </si>
+  <si>
+    <t>{.h403d}</t>
+  </si>
+  <si>
+    <t>{.h403e}</t>
+  </si>
+  <si>
+    <t>{.h04a}</t>
+  </si>
+  <si>
+    <t>{.h04b}</t>
+  </si>
+  <si>
+    <t>{.h04c}</t>
+  </si>
+  <si>
+    <t>{.h03a}</t>
+  </si>
+  <si>
+    <t>{.h03b}</t>
+  </si>
+  <si>
+    <t>{.h03c}</t>
+  </si>
+  <si>
+    <t>{.h03d}</t>
+  </si>
+  <si>
+    <t>{.c03}</t>
+  </si>
+  <si>
+    <t>{.h03f}</t>
+  </si>
+  <si>
+    <t>{.h03g}</t>
+  </si>
+  <si>
+    <t>{.h03h}</t>
+  </si>
+  <si>
+    <t>{.h05a}</t>
+  </si>
+  <si>
+    <t>{.d031}小时{.d032}分钟</t>
+  </si>
+  <si>
+    <t>{.d041}小时{.d042}分钟</t>
+  </si>
+  <si>
+    <t>{.h06a}</t>
+  </si>
+  <si>
+    <t>{.h06b}</t>
+  </si>
+  <si>
+    <t>{.h06c}</t>
+  </si>
+  <si>
+    <t>{.h06d1}</t>
+  </si>
+  <si>
+    <t>{.h06e1}</t>
+  </si>
+  <si>
+    <t>{.h06f}</t>
+  </si>
+  <si>
+    <t>{.h06g}</t>
+  </si>
+  <si>
+    <t>{.h06g1}</t>
+  </si>
+  <si>
+    <t>{.m01}</t>
+  </si>
+  <si>
+    <t>{.m02}</t>
+  </si>
+  <si>
+    <t>{.m03}</t>
+  </si>
+  <si>
+    <t>{.m04}</t>
+  </si>
+  <si>
+    <t>{.m05}</t>
+  </si>
+  <si>
+    <t>{.m06}</t>
+  </si>
+  <si>
+    <t>{.m07}</t>
+  </si>
+  <si>
+    <t>{.m08a}</t>
   </si>
 </sst>
 </file>
@@ -224,12 +395,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,20 +421,60 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,10 +488,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,59 +557,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -354,59 +566,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -422,187 +581,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,8 +793,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,17 +823,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,6 +845,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,28 +882,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,152 +892,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,19 +1059,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1240,13 +1393,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BF5" sqref="BF5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BF8" sqref="BF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="14.6083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.65" style="2" customWidth="1"/>
@@ -1288,7 +1441,7 @@
     <col min="38" max="38" width="18.8333333333333" style="1" customWidth="1"/>
     <col min="39" max="39" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="40" max="40" width="18.2333333333333" style="1" customWidth="1"/>
-    <col min="41" max="41" width="18.1166666666667" style="1" customWidth="1"/>
+    <col min="41" max="41" width="20.8333333333333" style="1" customWidth="1"/>
     <col min="42" max="42" width="17.875" style="1" customWidth="1"/>
     <col min="43" max="43" width="13.8833333333333" style="1" customWidth="1"/>
     <col min="44" max="45" width="17.0666666666667" style="1" customWidth="1"/>
@@ -1386,7 +1539,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -1407,81 +1560,81 @@
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="9" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="9" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="9" t="s">
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="9" t="s">
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="9" t="s">
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="9" t="s">
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="9" t="s">
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
     </row>
     <row r="2" ht="99" customHeight="1" spans="1:58">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
@@ -1497,141 +1650,315 @@
       <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AG2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AH2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AK2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AL2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AM2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AN2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AO2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AP2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AQ2" s="11" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AR2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AS2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AT2" s="11" t="s">
+      <c r="AT2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AU2" s="11" t="s">
+      <c r="AU2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AV2" s="11" t="s">
+      <c r="AV2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AW2" s="11" t="s">
+      <c r="AW2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="11" t="s">
+      <c r="AX2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AY2" s="11" t="s">
+      <c r="AY2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AZ2" s="11" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BA2" s="11" t="s">
+      <c r="BA2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BB2" s="11" t="s">
+      <c r="BB2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BC2" s="11" t="s">
+      <c r="BC2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="BD2" s="11" t="s">
+      <c r="BD2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="BE2" s="11" t="s">
+      <c r="BE2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="BF2" s="11" t="s">
+      <c r="BF2" s="9" t="s">
         <v>66</v>
       </c>
+    </row>
+    <row r="3" ht="18" spans="1:60">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="14040"/>
+    <workbookView windowWidth="27900" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -221,6 +221,9 @@
     <t>{.id1}</t>
   </si>
   <si>
+    <t>{.schoolName}</t>
+  </si>
+  <si>
     <t>{.province}</t>
   </si>
   <si>
@@ -335,10 +338,10 @@
     <t>{.h05a}</t>
   </si>
   <si>
-    <t>{.d031}小时{.d032}分钟</t>
-  </si>
-  <si>
-    <t>{.d041}小时{.d042}分钟</t>
+    <t>{.d031}、{.d032}</t>
+  </si>
+  <si>
+    <t>{.d041}、{.d042}</t>
   </si>
   <si>
     <t>{.h06a}</t>
@@ -395,10 +398,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -428,6 +431,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -436,22 +453,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,6 +484,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -488,9 +507,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,43 +539,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -549,17 +547,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,6 +567,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -581,31 +584,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,13 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,25 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,103 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,58 +811,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,9 +837,56 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,34 +895,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -928,61 +928,64 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,46 +994,46 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1395,8 +1398,8 @@
   <sheetPr/>
   <dimension ref="A1:BH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BF8" sqref="BF8"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1442,7 +1445,7 @@
     <col min="39" max="39" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="40" max="40" width="18.2333333333333" style="1" customWidth="1"/>
     <col min="41" max="41" width="20.8333333333333" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="21.8083333333333" style="1" customWidth="1"/>
     <col min="43" max="43" width="13.8833333333333" style="1" customWidth="1"/>
     <col min="44" max="45" width="17.0666666666667" style="1" customWidth="1"/>
     <col min="46" max="46" width="15.2" style="1" customWidth="1"/>
@@ -1790,173 +1793,176 @@
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BH3" s="3"/>
     </row>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
@@ -397,11 +397,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -446,10 +446,93 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,33 +544,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,82 +574,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -590,181 +590,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,15 +806,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -837,26 +828,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,149 +864,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,17 +1040,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1059,11 +1050,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1399,7 +1396,7 @@
   <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+      <selection activeCell="AY1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1542,7 +1539,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -1632,7 +1629,7 @@
     <row r="2" ht="99" customHeight="1" spans="1:58">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1653,139 +1650,139 @@
       <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AI2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AL2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AM2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AN2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AO2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AP2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AR2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AS2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AT2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AU2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AV2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AW2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AX2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AY2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BA2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BB2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BC2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BD2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BE2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BF2" s="8" t="s">
         <v>66</v>
       </c>
     </row>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
@@ -338,10 +338,10 @@
     <t>{.h05a}</t>
   </si>
   <si>
-    <t>{.d031}、{.d032}</t>
-  </si>
-  <si>
-    <t>{.d041}、{.d042}</t>
+    <t>{.d031}小时{.d032}分钟</t>
+  </si>
+  <si>
+    <t>{.d041}小时{.d042}分钟</t>
   </si>
   <si>
     <t>{.h06a}</t>
@@ -397,11 +397,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -446,10 +446,116 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,118 +568,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -596,19 +596,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,49 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,90 +765,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,11 +802,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,30 +876,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -864,170 +890,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1040,7 +1040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,12 +1051,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1395,8 +1389,8 @@
   <sheetPr/>
   <dimension ref="A1:BH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="AY1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1409,13 +1403,13 @@
     <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.6" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.775" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.825" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.8916666666667" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.075" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.15" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.9666666666667" style="4" customWidth="1"/>
-    <col min="14" max="14" width="19.8" style="4" customWidth="1"/>
-    <col min="15" max="15" width="17.5083333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.825" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.8916666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.075" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.15" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.9666666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.8" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5083333333333" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.0916666666667" style="1" customWidth="1"/>
     <col min="17" max="17" width="22.225" style="1" customWidth="1"/>
     <col min="18" max="18" width="22.7083333333333" style="1" customWidth="1"/>
@@ -1533,260 +1527,260 @@
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:58">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7" t="s">
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7" t="s">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7" t="s">
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7" t="s">
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7" t="s">
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
     </row>
     <row r="2" ht="99" customHeight="1" spans="1:58">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AR2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AS2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AV2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AW2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AY2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AZ2" s="8" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BA2" s="8" t="s">
+      <c r="BA2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BB2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BC2" s="8" t="s">
+      <c r="BC2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BD2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BE2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BF2" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:60">
+    <row r="3" ht="36" spans="1:60">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -1811,19 +1805,19 @@
       <c r="H3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="N3" s="1" t="s">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
@@ -396,11 +396,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -425,7 +424,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,12 +448,58 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,39 +513,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,21 +552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -522,14 +560,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -538,38 +568,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,25 +589,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,151 +715,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,23 +795,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,19 +813,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,17 +864,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,171 +894,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1387,26 +1380,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BH3"/>
+  <dimension ref="A1:BF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ10" sqref="AQ10"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="14.6083333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.65" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.65" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.1" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.6" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.775" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.825" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.8916666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.8916666666667" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.075" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.15" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.15" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.9666666666667" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.8" style="1" customWidth="1"/>
     <col min="15" max="15" width="17.5083333333333" style="1" customWidth="1"/>
@@ -1527,267 +1520,267 @@
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:58">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5" t="s">
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5" t="s">
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5" t="s">
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5" t="s">
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5" t="s">
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
     </row>
     <row r="2" ht="99" customHeight="1" spans="1:58">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AM2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AR2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AS2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AT2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AU2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AW2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AY2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BA2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BB2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BC2" s="6" t="s">
+      <c r="BC2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BD2" s="6" t="s">
+      <c r="BD2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BE2" s="6" t="s">
+      <c r="BE2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BF2" s="6" t="s">
+      <c r="BF2" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" ht="36" spans="1:60">
+    <row r="3" ht="36" spans="1:58">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1796,7 +1789,7 @@
       <c r="E3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1823,7 +1816,7 @@
       <c r="N3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -1832,7 +1825,7 @@
       <c r="Q3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -1841,7 +1834,7 @@
       <c r="T3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -1850,7 +1843,7 @@
       <c r="W3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="1" t="s">
         <v>90</v>
       </c>
       <c r="Y3" s="1" t="s">
@@ -1859,7 +1852,7 @@
       <c r="Z3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="1" t="s">
         <v>93</v>
       </c>
       <c r="AB3" s="1" t="s">
@@ -1868,7 +1861,7 @@
       <c r="AC3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AE3" s="1" t="s">
@@ -1877,7 +1870,7 @@
       <c r="AF3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AH3" s="1" t="s">
@@ -1886,7 +1879,7 @@
       <c r="AI3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="AK3" s="1" t="s">
@@ -1895,7 +1888,7 @@
       <c r="AL3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AM3" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AN3" s="1" t="s">
@@ -1904,7 +1897,7 @@
       <c r="AO3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AP3" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AQ3" s="1" t="s">
@@ -1913,7 +1906,7 @@
       <c r="AR3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AS3" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AT3" s="1" t="s">
@@ -1922,7 +1915,7 @@
       <c r="AU3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AV3" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AW3" s="1" t="s">
@@ -1931,7 +1924,7 @@
       <c r="AX3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AY3" s="1" t="s">
         <v>117</v>
       </c>
       <c r="AZ3" s="1" t="s">
@@ -1940,7 +1933,7 @@
       <c r="BA3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BB3" s="1" t="s">
         <v>120</v>
       </c>
       <c r="BC3" s="1" t="s">
@@ -1949,13 +1942,12 @@
       <c r="BD3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BE3" s="1" t="s">
         <v>123</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BH3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
@@ -399,8 +399,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -424,7 +424,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,14 +446,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -460,6 +483,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -468,111 +567,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -583,187 +583,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,6 +795,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -810,11 +819,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,6 +845,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,21 +876,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -878,164 +889,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,8 +1382,8 @@
   <sheetPr/>
   <dimension ref="A1:BF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="2"/>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportVisionSpineTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -163,10 +163,16 @@
     <t>G01过去一周里，你每天白天户外活动时间是多少（可累计）？</t>
   </si>
   <si>
-    <t>G02你平均每天的睡眠时间为？</t>
-  </si>
-  <si>
-    <t>G03在过去一周，你每天在室内静坐的时间是多少？</t>
+    <t>G02你平均每天的睡眠时间为？（小时）</t>
+  </si>
+  <si>
+    <t>G02你平均每天的睡眠时间为？（分钟）</t>
+  </si>
+  <si>
+    <t>G03在过去一周，你每天在室内静坐的时间是多少？（小时）</t>
+  </si>
+  <si>
+    <t>G03在过去一周，你每天在室内静坐的时间是多少？（分钟）</t>
   </si>
   <si>
     <t>H01你的父母是否近视？</t>
@@ -338,10 +344,16 @@
     <t>{.h05a}</t>
   </si>
   <si>
-    <t>{.d031}小时{.d032}分钟</t>
-  </si>
-  <si>
-    <t>{.d041}小时{.d042}分钟</t>
+    <t>{.d031}</t>
+  </si>
+  <si>
+    <t>{.d032}</t>
+  </si>
+  <si>
+    <t>{.d041}</t>
+  </si>
+  <si>
+    <t>{.d042}</t>
   </si>
   <si>
     <t>{.h06a}</t>
@@ -398,9 +410,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -424,14 +436,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,6 +453,112 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -461,33 +572,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,81 +585,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -583,13 +595,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,169 +721,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,41 +807,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,11 +845,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,16 +888,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,148 +906,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,10 +1392,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BF3"/>
+  <dimension ref="A1:BH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1429,97 +1441,97 @@
     <col min="39" max="39" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="40" max="40" width="18.2333333333333" style="1" customWidth="1"/>
     <col min="41" max="41" width="20.8333333333333" style="1" customWidth="1"/>
-    <col min="42" max="42" width="21.8083333333333" style="1" customWidth="1"/>
-    <col min="43" max="43" width="13.8833333333333" style="1" customWidth="1"/>
-    <col min="44" max="45" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="46" max="46" width="15.2" style="1" customWidth="1"/>
-    <col min="47" max="47" width="16.3" style="1" customWidth="1"/>
-    <col min="48" max="48" width="14.1333333333333" style="1" customWidth="1"/>
-    <col min="49" max="50" width="17.4" style="1" customWidth="1"/>
-    <col min="51" max="51" width="13.4083333333333" style="1" customWidth="1"/>
-    <col min="52" max="53" width="17.4" style="1" customWidth="1"/>
-    <col min="54" max="54" width="15.0916666666667" style="1" customWidth="1"/>
-    <col min="55" max="56" width="17.4" style="1" customWidth="1"/>
-    <col min="57" max="57" width="14.6166666666667" style="1" customWidth="1"/>
-    <col min="58" max="58" width="16.1833333333333" style="1" customWidth="1"/>
-    <col min="59" max="62" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="63" max="63" width="18.4" style="1" customWidth="1"/>
-    <col min="64" max="64" width="8" style="1" customWidth="1"/>
-    <col min="65" max="65" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="66" max="74" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="75" max="75" width="18.4" style="1" customWidth="1"/>
-    <col min="76" max="76" width="8" style="1" customWidth="1"/>
-    <col min="77" max="77" width="15.2" style="1" customWidth="1"/>
-    <col min="78" max="78" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="79" max="80" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="81" max="81" width="17.5333333333333" style="1" customWidth="1"/>
-    <col min="82" max="82" width="8" style="1" customWidth="1"/>
-    <col min="83" max="84" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="85" max="85" width="15.2" style="1" customWidth="1"/>
-    <col min="86" max="87" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="88" max="89" width="17.4" style="1" customWidth="1"/>
-    <col min="90" max="90" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="91" max="92" width="17.4" style="1" customWidth="1"/>
-    <col min="93" max="93" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="94" max="95" width="17.4" style="1" customWidth="1"/>
-    <col min="96" max="96" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="97" max="97" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="98" max="101" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="102" max="102" width="18.4" style="1" customWidth="1"/>
-    <col min="103" max="103" width="8" style="1" customWidth="1"/>
-    <col min="104" max="104" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="105" max="113" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="114" max="114" width="18.4" style="1" customWidth="1"/>
-    <col min="115" max="115" width="8" style="1" customWidth="1"/>
-    <col min="116" max="116" width="15.2" style="1" customWidth="1"/>
-    <col min="117" max="117" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="118" max="119" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="120" max="120" width="17.5333333333333" style="1" customWidth="1"/>
-    <col min="121" max="121" width="8" style="1" customWidth="1"/>
-    <col min="122" max="123" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="124" max="124" width="15.2" style="1" customWidth="1"/>
-    <col min="125" max="126" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="127" max="128" width="17.4" style="1" customWidth="1"/>
-    <col min="129" max="129" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="130" max="131" width="17.4" style="1" customWidth="1"/>
-    <col min="132" max="132" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="133" max="134" width="17.4" style="1" customWidth="1"/>
-    <col min="135" max="135" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="136" max="136" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="137" max="140" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="141" max="141" width="18.4" style="1" customWidth="1"/>
-    <col min="142" max="142" width="8" style="1" customWidth="1"/>
-    <col min="143" max="143" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="144" max="152" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="153" max="153" width="18.4" style="1" customWidth="1"/>
-    <col min="154" max="154" width="8" style="1" customWidth="1"/>
-    <col min="155" max="155" width="15.2" style="1" customWidth="1"/>
-    <col min="156" max="156" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="157" max="158" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="159" max="159" width="17.5333333333333" style="1" customWidth="1"/>
-    <col min="160" max="160" width="8" style="1" customWidth="1"/>
-    <col min="161" max="162" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="163" max="163" width="15.2" style="1" customWidth="1"/>
-    <col min="164" max="165" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="166" max="167" width="17.4" style="1" customWidth="1"/>
-    <col min="168" max="168" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="169" max="170" width="17.4" style="1" customWidth="1"/>
-    <col min="171" max="171" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="172" max="173" width="17.4" style="1" customWidth="1"/>
-    <col min="174" max="174" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="175" max="175" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="176" max="179" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="180" max="180" width="18.4" style="1" customWidth="1"/>
-    <col min="181" max="181" width="8" style="1" customWidth="1"/>
-    <col min="182" max="182" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="183" max="191" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="192" max="192" width="18.4" style="1" customWidth="1"/>
-    <col min="193" max="193" width="8" style="1" customWidth="1"/>
-    <col min="194" max="194" width="15.2" style="1" customWidth="1"/>
-    <col min="195" max="16384" width="11" style="1"/>
+    <col min="42" max="44" width="21.8083333333333" style="1" customWidth="1"/>
+    <col min="45" max="45" width="13.8833333333333" style="1" customWidth="1"/>
+    <col min="46" max="47" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="48" max="48" width="15.2" style="1" customWidth="1"/>
+    <col min="49" max="49" width="16.3" style="1" customWidth="1"/>
+    <col min="50" max="50" width="14.1333333333333" style="1" customWidth="1"/>
+    <col min="51" max="52" width="17.4" style="1" customWidth="1"/>
+    <col min="53" max="53" width="13.4083333333333" style="1" customWidth="1"/>
+    <col min="54" max="55" width="17.4" style="1" customWidth="1"/>
+    <col min="56" max="56" width="15.0916666666667" style="1" customWidth="1"/>
+    <col min="57" max="58" width="17.4" style="1" customWidth="1"/>
+    <col min="59" max="59" width="14.6166666666667" style="1" customWidth="1"/>
+    <col min="60" max="60" width="16.1833333333333" style="1" customWidth="1"/>
+    <col min="61" max="64" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="65" max="65" width="18.4" style="1" customWidth="1"/>
+    <col min="66" max="66" width="8" style="1" customWidth="1"/>
+    <col min="67" max="67" width="11.4666666666667" style="1" customWidth="1"/>
+    <col min="68" max="76" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="77" max="77" width="18.4" style="1" customWidth="1"/>
+    <col min="78" max="78" width="8" style="1" customWidth="1"/>
+    <col min="79" max="79" width="15.2" style="1" customWidth="1"/>
+    <col min="80" max="80" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="81" max="82" width="18.5333333333333" style="1" customWidth="1"/>
+    <col min="83" max="83" width="17.5333333333333" style="1" customWidth="1"/>
+    <col min="84" max="84" width="8" style="1" customWidth="1"/>
+    <col min="85" max="86" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="87" max="87" width="15.2" style="1" customWidth="1"/>
+    <col min="88" max="89" width="7.66666666666667" style="1" customWidth="1"/>
+    <col min="90" max="91" width="17.4" style="1" customWidth="1"/>
+    <col min="92" max="92" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="93" max="94" width="17.4" style="1" customWidth="1"/>
+    <col min="95" max="95" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="96" max="97" width="17.4" style="1" customWidth="1"/>
+    <col min="98" max="98" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="99" max="99" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="100" max="103" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="104" max="104" width="18.4" style="1" customWidth="1"/>
+    <col min="105" max="105" width="8" style="1" customWidth="1"/>
+    <col min="106" max="106" width="11.4666666666667" style="1" customWidth="1"/>
+    <col min="107" max="115" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="116" max="116" width="18.4" style="1" customWidth="1"/>
+    <col min="117" max="117" width="8" style="1" customWidth="1"/>
+    <col min="118" max="118" width="15.2" style="1" customWidth="1"/>
+    <col min="119" max="119" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="120" max="121" width="18.5333333333333" style="1" customWidth="1"/>
+    <col min="122" max="122" width="17.5333333333333" style="1" customWidth="1"/>
+    <col min="123" max="123" width="8" style="1" customWidth="1"/>
+    <col min="124" max="125" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="126" max="126" width="15.2" style="1" customWidth="1"/>
+    <col min="127" max="128" width="7.66666666666667" style="1" customWidth="1"/>
+    <col min="129" max="130" width="17.4" style="1" customWidth="1"/>
+    <col min="131" max="131" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="132" max="133" width="17.4" style="1" customWidth="1"/>
+    <col min="134" max="134" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="135" max="136" width="17.4" style="1" customWidth="1"/>
+    <col min="137" max="137" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="138" max="138" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="139" max="142" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="143" max="143" width="18.4" style="1" customWidth="1"/>
+    <col min="144" max="144" width="8" style="1" customWidth="1"/>
+    <col min="145" max="145" width="11.4666666666667" style="1" customWidth="1"/>
+    <col min="146" max="154" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="155" max="155" width="18.4" style="1" customWidth="1"/>
+    <col min="156" max="156" width="8" style="1" customWidth="1"/>
+    <col min="157" max="157" width="15.2" style="1" customWidth="1"/>
+    <col min="158" max="158" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="159" max="160" width="18.5333333333333" style="1" customWidth="1"/>
+    <col min="161" max="161" width="17.5333333333333" style="1" customWidth="1"/>
+    <col min="162" max="162" width="8" style="1" customWidth="1"/>
+    <col min="163" max="164" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="165" max="165" width="15.2" style="1" customWidth="1"/>
+    <col min="166" max="167" width="7.66666666666667" style="1" customWidth="1"/>
+    <col min="168" max="169" width="17.4" style="1" customWidth="1"/>
+    <col min="170" max="170" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="171" max="172" width="17.4" style="1" customWidth="1"/>
+    <col min="173" max="173" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="174" max="175" width="17.4" style="1" customWidth="1"/>
+    <col min="176" max="176" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="177" max="177" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="178" max="181" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="182" max="182" width="18.4" style="1" customWidth="1"/>
+    <col min="183" max="183" width="8" style="1" customWidth="1"/>
+    <col min="184" max="184" width="11.4666666666667" style="1" customWidth="1"/>
+    <col min="185" max="193" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="194" max="194" width="18.4" style="1" customWidth="1"/>
+    <col min="195" max="195" width="8" style="1" customWidth="1"/>
+    <col min="196" max="196" width="15.2" style="1" customWidth="1"/>
+    <col min="197" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:58">
+    <row r="1" ht="39" customHeight="1" spans="1:60">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1592,28 +1604,30 @@
       </c>
       <c r="AO1" s="3"/>
       <c r="AP1" s="3"/>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
       <c r="BB1" s="3"/>
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
     </row>
-    <row r="2" ht="99" customHeight="1" spans="1:58">
+    <row r="2" ht="99" customHeight="1" spans="1:60">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1772,181 +1786,193 @@
       <c r="BF2" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="BG2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" ht="36" spans="1:58">
+    <row r="3" ht="18" spans="1:60">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1957,9 +1983,9 @@
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AQ1:AX1"/>
-    <mergeCell ref="AY1:BF1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AS1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
